--- a/overall_test.xlsx
+++ b/overall_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\Documents\GitHub\loot-box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FCB25F-7A8E-4FC3-ADE8-B8E44E7166DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE9335-B540-4D40-9223-6F4A45C20F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32070" yWindow="1395" windowWidth="17280" windowHeight="8970" xr2:uid="{D052358D-E347-4D8F-B726-22389C5DF814}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D052358D-E347-4D8F-B726-22389C5DF814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="3">
   <si>
     <t>andy</t>
   </si>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67B51C7-408A-42C6-94C5-6D82C323F966}">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AF15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1872,6 +1872,202 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9.7070693999999999E-2</v>
+      </c>
+      <c r="B16">
+        <v>0.84785485299999996</v>
+      </c>
+      <c r="C16">
+        <v>0.75078415899999995</v>
+      </c>
+      <c r="D16">
+        <v>0.166439056</v>
+      </c>
+      <c r="E16">
+        <v>0.110288382</v>
+      </c>
+      <c r="F16">
+        <v>-5.6150674999999997E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.12589335400000001</v>
+      </c>
+      <c r="H16">
+        <v>0.17688918100000001</v>
+      </c>
+      <c r="I16">
+        <v>5.0995827000000001E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.132549524</v>
+      </c>
+      <c r="K16">
+        <v>0.28283882100000002</v>
+      </c>
+      <c r="L16">
+        <v>0.15028929699999999</v>
+      </c>
+      <c r="M16">
+        <v>0.124449015</v>
+      </c>
+      <c r="N16">
+        <v>0.27512741099999999</v>
+      </c>
+      <c r="O16">
+        <v>0.15067839599999999</v>
+      </c>
+      <c r="P16">
+        <v>0.12427187000000001</v>
+      </c>
+      <c r="Q16">
+        <v>0.15144991899999999</v>
+      </c>
+      <c r="R16">
+        <v>2.7178048999999999E-2</v>
+      </c>
+      <c r="S16">
+        <v>0.10210728600000001</v>
+      </c>
+      <c r="T16">
+        <v>8.7602376999999995E-2</v>
+      </c>
+      <c r="U16">
+        <v>-1.4504909999999999E-2</v>
+      </c>
+      <c r="V16">
+        <v>0.14773178100000001</v>
+      </c>
+      <c r="W16">
+        <v>0.10849046699999999</v>
+      </c>
+      <c r="X16">
+        <v>-3.9241313999999999E-2</v>
+      </c>
+      <c r="Y16">
+        <v>0.10965156600000001</v>
+      </c>
+      <c r="Z16">
+        <v>0.19156789799999999</v>
+      </c>
+      <c r="AA16">
+        <v>8.1916331999999994E-2</v>
+      </c>
+      <c r="AB16">
+        <v>7.9848528000000002E-2</v>
+      </c>
+      <c r="AC16">
+        <v>0.15631890300000001</v>
+      </c>
+      <c r="AD16">
+        <v>7.6470374999999993E-2</v>
+      </c>
+      <c r="AE16">
+        <v>8.2014798999999999E-2</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>9.9988461000000001E-2</v>
+      </c>
+      <c r="B17">
+        <v>0.17752456699999999</v>
+      </c>
+      <c r="C17">
+        <v>7.7536105999999994E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.14422964999999999</v>
+      </c>
+      <c r="E17">
+        <v>8.219862E-2</v>
+      </c>
+      <c r="F17">
+        <v>-6.2031031E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.110931158</v>
+      </c>
+      <c r="H17">
+        <v>0.115798473</v>
+      </c>
+      <c r="I17">
+        <v>4.8673149999999997E-3</v>
+      </c>
+      <c r="J17">
+        <v>0.124435425</v>
+      </c>
+      <c r="K17">
+        <v>0.35327577599999999</v>
+      </c>
+      <c r="L17">
+        <v>0.228840351</v>
+      </c>
+      <c r="M17">
+        <v>0.13887524600000001</v>
+      </c>
+      <c r="N17">
+        <v>0.35334515599999999</v>
+      </c>
+      <c r="O17">
+        <v>0.21446991000000001</v>
+      </c>
+      <c r="P17">
+        <v>0.13465094599999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.15176487</v>
+      </c>
+      <c r="R17">
+        <v>1.7113923999999999E-2</v>
+      </c>
+      <c r="S17">
+        <v>0.110539913</v>
+      </c>
+      <c r="T17">
+        <v>0.10696697199999999</v>
+      </c>
+      <c r="U17">
+        <v>-3.5729410000000001E-3</v>
+      </c>
+      <c r="V17">
+        <v>0.15906071699999999</v>
+      </c>
+      <c r="W17">
+        <v>0.108782053</v>
+      </c>
+      <c r="X17">
+        <v>-5.0278664000000001E-2</v>
+      </c>
+      <c r="Y17">
+        <v>0.10929513</v>
+      </c>
+      <c r="Z17">
+        <v>0.20539355300000001</v>
+      </c>
+      <c r="AA17">
+        <v>9.6098423000000002E-2</v>
+      </c>
+      <c r="AB17">
+        <v>0.11729550399999999</v>
+      </c>
+      <c r="AC17">
+        <v>0.20170855500000001</v>
+      </c>
+      <c r="AD17">
+        <v>8.4413052000000002E-2</v>
+      </c>
+      <c r="AE17">
+        <v>8.5886002000000003E-2</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
